--- a/Data/Table/MapSlot.xlsx
+++ b/Data/Table/MapSlot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08E04092-6190-45F6-9250-D845660B5422}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C290357-E8BD-42D3-A586-6C7FFE619820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="29310" windowHeight="15570" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="30" windowWidth="29310" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="49">
   <si>
     <t>Slot0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,7 +180,24 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dic</t>
+    <t>NextType;MapSlot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Test</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Point12</t>
+  </si>
+  <si>
+    <t>Monster</t>
+  </si>
+  <si>
+    <t>Elite</t>
+  </si>
+  <si>
+    <t>NextType;SlotParam</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -513,20 +530,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O27"/>
+  <dimension ref="A1:T27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="9" customWidth="1"/>
+    <col min="16" max="16" width="17.125" customWidth="1"/>
+    <col min="19" max="19" width="19.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
@@ -561,8 +580,23 @@
       <c r="O1" s="1" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>28</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="S1" t="s">
+        <v>47</v>
+      </c>
+      <c r="T1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>37</v>
       </c>
@@ -578,8 +612,17 @@
       <c r="L2" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="P2" t="s">
+        <v>43</v>
+      </c>
+      <c r="S2" t="s">
+        <v>32</v>
+      </c>
+      <c r="T2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -592,8 +635,20 @@
       <c r="I3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q3" t="s">
+        <v>32</v>
+      </c>
+      <c r="R3" t="s">
+        <v>1</v>
+      </c>
+      <c r="S3" t="s">
+        <v>45</v>
+      </c>
+      <c r="T3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -609,8 +664,20 @@
       <c r="I4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q4" t="s">
+        <v>32</v>
+      </c>
+      <c r="R4" t="s">
+        <v>2</v>
+      </c>
+      <c r="S4" t="s">
+        <v>45</v>
+      </c>
+      <c r="T4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -626,8 +693,20 @@
       <c r="I5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" t="s">
+        <v>3</v>
+      </c>
+      <c r="S5" t="s">
+        <v>45</v>
+      </c>
+      <c r="T5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -643,8 +722,20 @@
       <c r="I6" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" t="s">
+        <v>4</v>
+      </c>
+      <c r="S6" t="s">
+        <v>45</v>
+      </c>
+      <c r="T6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -660,40 +751,55 @@
       <c r="I7" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q7" t="s">
+        <v>44</v>
+      </c>
+      <c r="R7" t="s">
+        <v>5</v>
+      </c>
+      <c r="S7" t="s">
+        <v>45</v>
+      </c>
+      <c r="T7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>5</v>
+        <v>31</v>
       </c>
       <c r="B8">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>4</v>
+        <v>8</v>
+      </c>
+      <c r="F8" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" t="s">
+        <v>24</v>
       </c>
       <c r="I8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J8" t="s">
-        <v>6</v>
-      </c>
-      <c r="K8" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>44</v>
+      </c>
+      <c r="R8" t="s">
+        <v>10</v>
+      </c>
+      <c r="S8" t="s">
+        <v>46</v>
+      </c>
+      <c r="T8" t="s">
         <v>18</v>
       </c>
-      <c r="M8" t="s">
-        <v>32</v>
-      </c>
-      <c r="N8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.2">
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -709,8 +815,20 @@
       <c r="I9" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R9" t="s">
+        <v>7</v>
+      </c>
+      <c r="S9" t="s">
+        <v>46</v>
+      </c>
+      <c r="T9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -726,8 +844,20 @@
       <c r="I10" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q10" t="s">
+        <v>44</v>
+      </c>
+      <c r="R10" t="s">
+        <v>8</v>
+      </c>
+      <c r="S10" t="s">
+        <v>46</v>
+      </c>
+      <c r="T10" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -743,31 +873,64 @@
       <c r="I11" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q11" t="s">
+        <v>44</v>
+      </c>
+      <c r="R11" t="s">
+        <v>9</v>
+      </c>
+      <c r="S11" t="s">
+        <v>46</v>
+      </c>
+      <c r="T11" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>31</v>
+        <v>5</v>
       </c>
       <c r="B12">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" t="s">
-        <v>17</v>
-      </c>
-      <c r="G12" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="I12" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.2">
+        <v>11</v>
+      </c>
+      <c r="J12" t="s">
+        <v>6</v>
+      </c>
+      <c r="K12" t="s">
+        <v>18</v>
+      </c>
+      <c r="M12" t="s">
+        <v>32</v>
+      </c>
+      <c r="N12" t="s">
+        <v>33</v>
+      </c>
+      <c r="O12" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R12" t="s">
+        <v>6</v>
+      </c>
+      <c r="S12" t="s">
+        <v>45</v>
+      </c>
+      <c r="T12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>10</v>
       </c>
@@ -783,8 +946,20 @@
       <c r="I13" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q13" t="s">
+        <v>44</v>
+      </c>
+      <c r="R13" t="s">
+        <v>11</v>
+      </c>
+      <c r="S13" t="s">
+        <v>46</v>
+      </c>
+      <c r="T13" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>11</v>
       </c>
@@ -800,8 +975,20 @@
       <c r="I14" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q14" t="s">
+        <v>44</v>
+      </c>
+      <c r="R14" t="s">
+        <v>12</v>
+      </c>
+      <c r="S14" t="s">
+        <v>46</v>
+      </c>
+      <c r="T14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>12</v>
       </c>
@@ -817,8 +1004,20 @@
       <c r="I15" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.2">
+      <c r="Q15" t="s">
+        <v>44</v>
+      </c>
+      <c r="R15" t="s">
+        <v>13</v>
+      </c>
+      <c r="S15" t="s">
+        <v>46</v>
+      </c>
+      <c r="T15" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>13</v>
       </c>
@@ -834,8 +1033,20 @@
       <c r="I16" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="Q16" t="s">
+        <v>44</v>
+      </c>
+      <c r="R16" t="s">
+        <v>14</v>
+      </c>
+      <c r="S16" t="s">
+        <v>46</v>
+      </c>
+      <c r="T16" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>14</v>
       </c>
@@ -851,8 +1062,20 @@
       <c r="I17" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="Q17" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" t="s">
+        <v>15</v>
+      </c>
+      <c r="S17" t="s">
+        <v>46</v>
+      </c>
+      <c r="T17" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>15</v>
       </c>
@@ -868,8 +1091,20 @@
       <c r="I18" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="Q18" t="s">
+        <v>44</v>
+      </c>
+      <c r="R18" t="s">
+        <v>16</v>
+      </c>
+      <c r="S18" t="s">
+        <v>46</v>
+      </c>
+      <c r="T18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>16</v>
       </c>
@@ -885,8 +1120,20 @@
       <c r="I19" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="Q19" t="s">
+        <v>44</v>
+      </c>
+      <c r="R19" t="s">
+        <v>17</v>
+      </c>
+      <c r="S19" t="s">
+        <v>46</v>
+      </c>
+      <c r="T19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -902,8 +1149,20 @@
       <c r="I20" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="Q20" t="s">
+        <v>44</v>
+      </c>
+      <c r="R20" t="s">
+        <v>18</v>
+      </c>
+      <c r="S20" t="s">
+        <v>46</v>
+      </c>
+      <c r="T20" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>18</v>
       </c>
@@ -919,8 +1178,20 @@
       <c r="I21" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="Q21" t="s">
+        <v>44</v>
+      </c>
+      <c r="R21" t="s">
+        <v>19</v>
+      </c>
+      <c r="S21" t="s">
+        <v>46</v>
+      </c>
+      <c r="T21" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>19</v>
       </c>
@@ -936,8 +1207,20 @@
       <c r="I22" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="Q22" t="s">
+        <v>44</v>
+      </c>
+      <c r="R22" t="s">
+        <v>20</v>
+      </c>
+      <c r="S22" t="s">
+        <v>46</v>
+      </c>
+      <c r="T22" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>20</v>
       </c>
@@ -953,8 +1236,20 @@
       <c r="I23" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="Q23" t="s">
+        <v>44</v>
+      </c>
+      <c r="R23" t="s">
+        <v>21</v>
+      </c>
+      <c r="S23" t="s">
+        <v>46</v>
+      </c>
+      <c r="T23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>21</v>
       </c>
@@ -970,8 +1265,20 @@
       <c r="I24" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="Q24" t="s">
+        <v>44</v>
+      </c>
+      <c r="R24" t="s">
+        <v>22</v>
+      </c>
+      <c r="S24" t="s">
+        <v>46</v>
+      </c>
+      <c r="T24" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>22</v>
       </c>
@@ -987,8 +1294,20 @@
       <c r="I25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="Q25" t="s">
+        <v>44</v>
+      </c>
+      <c r="R25" t="s">
+        <v>23</v>
+      </c>
+      <c r="S25" t="s">
+        <v>46</v>
+      </c>
+      <c r="T25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>23</v>
       </c>
@@ -1004,8 +1323,20 @@
       <c r="I26" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="Q26" t="s">
+        <v>44</v>
+      </c>
+      <c r="R26" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" t="s">
+        <v>46</v>
+      </c>
+      <c r="T26" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>24</v>
       </c>
@@ -1020,6 +1351,18 @@
       </c>
       <c r="I27" t="s">
         <v>9</v>
+      </c>
+      <c r="Q27" t="s">
+        <v>44</v>
+      </c>
+      <c r="R27" t="s">
+        <v>12</v>
+      </c>
+      <c r="S27" t="s">
+        <v>46</v>
+      </c>
+      <c r="T27" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -1033,14 +1376,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FEE468-DE18-4CBE-AA34-EE2549837FE6}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
-        <v>43</v>
-      </c>
       <c r="B1" t="s">
         <v>40</v>
       </c>

--- a/Data/Table/MapSlot.xlsx
+++ b/Data/Table/MapSlot.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6C290357-E8BD-42D3-A586-6C7FFE619820}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050646E0-752B-4F1E-A29A-C7C48154D02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="30" windowWidth="29310" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -201,7 +201,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>dic</t>
+    <t>ref</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -533,7 +533,7 @@
   <dimension ref="A1:T27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>

--- a/Data/Table/MapSlot.xlsx
+++ b/Data/Table/MapSlot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{050646E0-752B-4F1E-A29A-C7C48154D02A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C624C49-B31A-4451-B51F-ADB18B634FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="30" windowWidth="29310" windowHeight="15570" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="55">
   <si>
     <t>Slot0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -202,6 +202,30 @@
   </si>
   <si>
     <t>ref</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>b</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>a</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AAA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>class[</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Slot10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BBB</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -530,10 +554,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:T27"/>
+  <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="AF9" sqref="AF9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -541,9 +565,11 @@
     <col min="4" max="4" width="9" customWidth="1"/>
     <col min="16" max="16" width="17.125" customWidth="1"/>
     <col min="19" max="19" width="19.25" customWidth="1"/>
+    <col min="28" max="28" width="1.625" customWidth="1"/>
+    <col min="33" max="33" width="2.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>48</v>
       </c>
@@ -595,8 +621,35 @@
       <c r="T1" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U1" t="s">
+        <v>52</v>
+      </c>
+      <c r="V1" t="s">
+        <v>30</v>
+      </c>
+      <c r="W1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>52</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>37</v>
       </c>
@@ -621,8 +674,29 @@
       <c r="T2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="U2" t="s">
+        <v>51</v>
+      </c>
+      <c r="V2" t="s">
+        <v>50</v>
+      </c>
+      <c r="W2" t="s">
+        <v>49</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>54</v>
+      </c>
+      <c r="AE2" t="s">
+        <v>50</v>
+      </c>
+      <c r="AF2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -647,8 +721,35 @@
       <c r="T3" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V3" t="s">
+        <v>32</v>
+      </c>
+      <c r="W3">
+        <v>12</v>
+      </c>
+      <c r="X3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y3">
+        <v>12</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA3">
+        <v>12</v>
+      </c>
+      <c r="AC3" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -676,8 +777,35 @@
       <c r="T4" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V4" t="s">
+        <v>32</v>
+      </c>
+      <c r="W4">
+        <v>12</v>
+      </c>
+      <c r="X4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Y4">
+        <v>12</v>
+      </c>
+      <c r="Z4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA4">
+        <v>12</v>
+      </c>
+      <c r="AC4" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AF4">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -705,8 +833,35 @@
       <c r="T5" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V5" t="s">
+        <v>44</v>
+      </c>
+      <c r="W5">
+        <v>12</v>
+      </c>
+      <c r="X5" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y5">
+        <v>12</v>
+      </c>
+      <c r="Z5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA5">
+        <v>12</v>
+      </c>
+      <c r="AC5" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE5" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -734,635 +889,1229 @@
       <c r="T6" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V6" t="s">
+        <v>44</v>
+      </c>
+      <c r="W6">
+        <v>12</v>
+      </c>
+      <c r="X6" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y6">
+        <v>12</v>
+      </c>
+      <c r="Z6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA6">
+        <v>12</v>
+      </c>
+      <c r="AC6" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE6" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF6">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B7">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E7" t="s">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="Q7" t="s">
         <v>44</v>
       </c>
       <c r="R7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="S7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="T7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+      <c r="V7" t="s">
+        <v>44</v>
+      </c>
+      <c r="W7">
+        <v>12</v>
+      </c>
+      <c r="X7" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y7">
+        <v>12</v>
+      </c>
+      <c r="Z7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA7">
+        <v>12</v>
+      </c>
+      <c r="AC7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE7" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>9</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="E8" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
         <v>17</v>
       </c>
-      <c r="G8" t="s">
-        <v>24</v>
-      </c>
-      <c r="I8" t="s">
-        <v>10</v>
-      </c>
       <c r="Q8" t="s">
         <v>44</v>
       </c>
       <c r="R8" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="S8" t="s">
         <v>46</v>
       </c>
       <c r="T8" t="s">
+        <v>31</v>
+      </c>
+      <c r="V8" t="s">
+        <v>44</v>
+      </c>
+      <c r="W8">
+        <v>12</v>
+      </c>
+      <c r="X8" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y8">
+        <v>12</v>
+      </c>
+      <c r="Z8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA8">
+        <v>12</v>
+      </c>
+      <c r="AC8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE8" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF8">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>44</v>
+      </c>
+      <c r="R9" t="s">
         <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9">
-        <v>6</v>
-      </c>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="E9" t="s">
-        <v>5</v>
-      </c>
-      <c r="I9" t="s">
-        <v>7</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>44</v>
-      </c>
-      <c r="R9" t="s">
-        <v>7</v>
       </c>
       <c r="S9" t="s">
         <v>46</v>
       </c>
       <c r="T9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="V9" t="s">
+        <v>44</v>
+      </c>
+      <c r="W9">
+        <v>12</v>
+      </c>
+      <c r="X9" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y9">
+        <v>12</v>
+      </c>
+      <c r="Z9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA9">
+        <v>12</v>
+      </c>
+      <c r="AC9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE9" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF9">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B10">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="E10" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="I10" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="Q10" t="s">
         <v>44</v>
       </c>
       <c r="R10" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="S10" t="s">
         <v>46</v>
       </c>
       <c r="T10" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
+        <v>31</v>
+      </c>
+      <c r="V10" t="s">
+        <v>44</v>
+      </c>
+      <c r="W10">
+        <v>12</v>
+      </c>
+      <c r="X10" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y10">
+        <v>12</v>
+      </c>
+      <c r="Z10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA10">
+        <v>12</v>
+      </c>
+      <c r="AC10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AE10" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B11">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E11" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="I11" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="Q11" t="s">
         <v>44</v>
       </c>
       <c r="R11" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="S11" t="s">
         <v>46</v>
       </c>
       <c r="T11" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
+        <v>10</v>
+      </c>
+      <c r="V11" t="s">
+        <v>44</v>
+      </c>
+      <c r="W11">
+        <v>12</v>
+      </c>
+      <c r="X11" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y11">
+        <v>12</v>
+      </c>
+      <c r="Z11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA11">
+        <v>12</v>
+      </c>
+      <c r="AC11" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE11" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF11">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="B12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E12" t="s">
-        <v>4</v>
+        <v>19</v>
       </c>
       <c r="I12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>44</v>
+      </c>
+      <c r="R12" t="s">
+        <v>21</v>
+      </c>
+      <c r="S12" t="s">
+        <v>46</v>
+      </c>
+      <c r="T12" t="s">
         <v>11</v>
       </c>
-      <c r="J12" t="s">
-        <v>6</v>
-      </c>
-      <c r="K12" t="s">
-        <v>18</v>
-      </c>
-      <c r="M12" t="s">
-        <v>32</v>
-      </c>
-      <c r="N12" t="s">
-        <v>33</v>
-      </c>
-      <c r="O12" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>44</v>
-      </c>
-      <c r="R12" t="s">
-        <v>6</v>
-      </c>
-      <c r="S12" t="s">
-        <v>45</v>
-      </c>
-      <c r="T12" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V12" t="s">
+        <v>44</v>
+      </c>
+      <c r="W12">
+        <v>12</v>
+      </c>
+      <c r="X12" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y12">
+        <v>12</v>
+      </c>
+      <c r="Z12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA12">
+        <v>12</v>
+      </c>
+      <c r="AC12" t="s">
+        <v>11</v>
+      </c>
+      <c r="AE12" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="B13">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>20</v>
       </c>
       <c r="I13" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="Q13" t="s">
         <v>44</v>
       </c>
       <c r="R13" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="S13" t="s">
         <v>46</v>
       </c>
       <c r="T13" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
+        <v>12</v>
+      </c>
+      <c r="V13" t="s">
+        <v>44</v>
+      </c>
+      <c r="W13">
+        <v>12</v>
+      </c>
+      <c r="X13" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y13">
+        <v>12</v>
+      </c>
+      <c r="Z13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA13">
+        <v>12</v>
+      </c>
+      <c r="AC13" t="s">
+        <v>12</v>
+      </c>
+      <c r="AE13" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF13">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="B14">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C14">
-        <v>1</v>
+        <v>-2</v>
       </c>
       <c r="E14" t="s">
-        <v>35</v>
+        <v>21</v>
       </c>
       <c r="I14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="Q14" t="s">
         <v>44</v>
       </c>
       <c r="R14" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="S14" t="s">
         <v>46</v>
       </c>
       <c r="T14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
+        <v>13</v>
+      </c>
+      <c r="V14" t="s">
+        <v>44</v>
+      </c>
+      <c r="W14">
+        <v>12</v>
+      </c>
+      <c r="X14" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y14">
+        <v>12</v>
+      </c>
+      <c r="Z14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA14">
+        <v>12</v>
+      </c>
+      <c r="AC14" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE14" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="C15">
-        <v>2</v>
+        <v>-2</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="I15" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="Q15" t="s">
         <v>44</v>
       </c>
       <c r="R15" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="S15" t="s">
         <v>46</v>
       </c>
       <c r="T15" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
+        <v>14</v>
+      </c>
+      <c r="V15" t="s">
+        <v>44</v>
+      </c>
+      <c r="W15">
+        <v>12</v>
+      </c>
+      <c r="X15" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y15">
+        <v>12</v>
+      </c>
+      <c r="Z15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA15">
+        <v>12</v>
+      </c>
+      <c r="AC15" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE15" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF15">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>24</v>
       </c>
       <c r="B16">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>-1</v>
       </c>
       <c r="E16" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="I16" t="s">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="Q16" t="s">
         <v>44</v>
       </c>
       <c r="R16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="S16" t="s">
         <v>46</v>
       </c>
       <c r="T16" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="V16" t="s">
+        <v>44</v>
+      </c>
+      <c r="W16">
+        <v>12</v>
+      </c>
+      <c r="X16" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y16">
+        <v>12</v>
+      </c>
+      <c r="Z16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA16">
+        <v>12</v>
+      </c>
+      <c r="AC16" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE16" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF16">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>4</v>
       </c>
       <c r="B17">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C17">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E17" t="s">
+        <v>3</v>
+      </c>
+      <c r="I17" t="s">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" t="s">
+        <v>5</v>
+      </c>
+      <c r="S17" t="s">
+        <v>45</v>
+      </c>
+      <c r="T17" t="s">
         <v>13</v>
       </c>
-      <c r="I17" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>44</v>
-      </c>
-      <c r="R17" t="s">
-        <v>15</v>
-      </c>
-      <c r="S17" t="s">
-        <v>46</v>
-      </c>
-      <c r="T17" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
+      <c r="V17" t="s">
+        <v>44</v>
+      </c>
+      <c r="W17">
+        <v>12</v>
+      </c>
+      <c r="X17" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y17">
+        <v>12</v>
+      </c>
+      <c r="Z17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA17">
+        <v>12</v>
+      </c>
+      <c r="AC17" t="s">
+        <v>13</v>
+      </c>
+      <c r="AE17" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF17">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>15</v>
+        <v>31</v>
       </c>
       <c r="B18">
+        <v>9</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>14</v>
+      <c r="F18" t="s">
+        <v>17</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
       </c>
       <c r="I18" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="Q18" t="s">
         <v>44</v>
       </c>
       <c r="R18" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="S18" t="s">
         <v>46</v>
       </c>
       <c r="T18" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
+        <v>18</v>
+      </c>
+      <c r="V18" t="s">
+        <v>44</v>
+      </c>
+      <c r="W18">
+        <v>12</v>
+      </c>
+      <c r="X18" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y18">
+        <v>12</v>
+      </c>
+      <c r="Z18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA18">
+        <v>12</v>
+      </c>
+      <c r="AC18" t="s">
+        <v>18</v>
+      </c>
+      <c r="AE18" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF18">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="B19">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="I19" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="Q19" t="s">
         <v>44</v>
       </c>
       <c r="R19" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="S19" t="s">
         <v>46</v>
       </c>
       <c r="T19" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
+        <v>15</v>
+      </c>
+      <c r="V19" t="s">
+        <v>44</v>
+      </c>
+      <c r="W19">
+        <v>12</v>
+      </c>
+      <c r="X19" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y19">
+        <v>12</v>
+      </c>
+      <c r="Z19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA19">
+        <v>12</v>
+      </c>
+      <c r="AC19" t="s">
+        <v>15</v>
+      </c>
+      <c r="AE19" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="B20">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C20">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>16</v>
+        <v>6</v>
       </c>
       <c r="I20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Q20" t="s">
         <v>44</v>
       </c>
       <c r="R20" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="S20" t="s">
         <v>46</v>
       </c>
       <c r="T20" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+      <c r="V20" t="s">
+        <v>44</v>
+      </c>
+      <c r="W20">
+        <v>12</v>
+      </c>
+      <c r="X20" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y20">
+        <v>12</v>
+      </c>
+      <c r="Z20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA20">
+        <v>12</v>
+      </c>
+      <c r="AC20" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE20" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="C21">
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="I21" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="Q21" t="s">
         <v>44</v>
       </c>
       <c r="R21" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="S21" t="s">
         <v>46</v>
       </c>
       <c r="T21" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
+        <v>17</v>
+      </c>
+      <c r="V21" t="s">
+        <v>44</v>
+      </c>
+      <c r="W21">
+        <v>12</v>
+      </c>
+      <c r="X21" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y21">
+        <v>12</v>
+      </c>
+      <c r="Z21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA21">
+        <v>12</v>
+      </c>
+      <c r="AC21" t="s">
+        <v>17</v>
+      </c>
+      <c r="AE21" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="B22">
         <v>5</v>
       </c>
       <c r="C22">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E22" t="s">
+        <v>4</v>
+      </c>
+      <c r="I22" t="s">
+        <v>11</v>
+      </c>
+      <c r="J22" t="s">
+        <v>6</v>
+      </c>
+      <c r="K22" t="s">
         <v>18</v>
       </c>
-      <c r="I22" t="s">
-        <v>20</v>
+      <c r="M22" t="s">
+        <v>32</v>
+      </c>
+      <c r="N22" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" t="s">
+        <v>34</v>
       </c>
       <c r="Q22" t="s">
         <v>44</v>
       </c>
       <c r="R22" t="s">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="S22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T22" t="s">
+        <v>14</v>
+      </c>
+      <c r="V22" t="s">
+        <v>44</v>
+      </c>
+      <c r="W22">
+        <v>12</v>
+      </c>
+      <c r="X22" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y22">
+        <v>12</v>
+      </c>
+      <c r="Z22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA22">
+        <v>12</v>
+      </c>
+      <c r="AC22" t="s">
+        <v>14</v>
+      </c>
+      <c r="AE22" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF22">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="23" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A23" t="s">
-        <v>20</v>
-      </c>
       <c r="B23">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C23">
-        <v>-2</v>
+        <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>19</v>
+        <v>9</v>
       </c>
       <c r="I23" t="s">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="s">
         <v>44</v>
       </c>
       <c r="R23" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="S23" t="s">
         <v>46</v>
       </c>
       <c r="T23" t="s">
+        <v>19</v>
+      </c>
+      <c r="V23" t="s">
+        <v>44</v>
+      </c>
+      <c r="W23">
+        <v>12</v>
+      </c>
+      <c r="X23" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y23">
+        <v>12</v>
+      </c>
+      <c r="Z23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA23">
+        <v>12</v>
+      </c>
+      <c r="AC23" t="s">
+        <v>19</v>
+      </c>
+      <c r="AE23" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF23">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A24" t="s">
-        <v>21</v>
-      </c>
       <c r="B24">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C24">
-        <v>-2</v>
+        <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
       <c r="I24" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="Q24" t="s">
         <v>44</v>
       </c>
       <c r="R24" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="S24" t="s">
         <v>46</v>
       </c>
       <c r="T24" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="25" spans="1:20" x14ac:dyDescent="0.2">
+        <v>20</v>
+      </c>
+      <c r="V24" t="s">
+        <v>44</v>
+      </c>
+      <c r="W24">
+        <v>12</v>
+      </c>
+      <c r="X24" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y24">
+        <v>12</v>
+      </c>
+      <c r="Z24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA24">
+        <v>12</v>
+      </c>
+      <c r="AC24" t="s">
+        <v>20</v>
+      </c>
+      <c r="AE24" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF24">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B25">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="C25">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="I25" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="Q25" t="s">
         <v>44</v>
       </c>
       <c r="R25" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="S25" t="s">
         <v>46</v>
       </c>
       <c r="T25" t="s">
+        <v>21</v>
+      </c>
+      <c r="V25" t="s">
+        <v>44</v>
+      </c>
+      <c r="W25">
+        <v>12</v>
+      </c>
+      <c r="X25" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y25">
+        <v>12</v>
+      </c>
+      <c r="Z25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA25">
+        <v>12</v>
+      </c>
+      <c r="AC25" t="s">
+        <v>21</v>
+      </c>
+      <c r="AE25" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="26" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A26" t="s">
-        <v>23</v>
-      </c>
       <c r="B26">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="C26">
-        <v>-2</v>
+        <v>2</v>
       </c>
       <c r="E26" t="s">
-        <v>22</v>
+        <v>36</v>
       </c>
       <c r="I26" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="Q26" t="s">
         <v>44</v>
       </c>
       <c r="R26" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="S26" t="s">
         <v>46</v>
       </c>
       <c r="T26" t="s">
+        <v>22</v>
+      </c>
+      <c r="V26" t="s">
+        <v>44</v>
+      </c>
+      <c r="W26">
+        <v>12</v>
+      </c>
+      <c r="X26" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y26">
+        <v>12</v>
+      </c>
+      <c r="Z26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA26">
+        <v>12</v>
+      </c>
+      <c r="AC26" t="s">
+        <v>22</v>
+      </c>
+      <c r="AE26" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF26">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="27" spans="1:20" x14ac:dyDescent="0.2">
-      <c r="A27" t="s">
-        <v>24</v>
-      </c>
       <c r="B27">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C27">
-        <v>-1</v>
+        <v>2</v>
       </c>
       <c r="E27" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="I27" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="Q27" t="s">
         <v>44</v>
       </c>
       <c r="R27" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="S27" t="s">
         <v>46</v>
       </c>
       <c r="T27" t="s">
-        <v>15</v>
+        <v>23</v>
+      </c>
+      <c r="V27" t="s">
+        <v>44</v>
+      </c>
+      <c r="W27">
+        <v>12</v>
+      </c>
+      <c r="X27" t="s">
+        <v>44</v>
+      </c>
+      <c r="Y27">
+        <v>12</v>
+      </c>
+      <c r="Z27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AA27">
+        <v>12</v>
+      </c>
+      <c r="AC27" t="s">
+        <v>23</v>
+      </c>
+      <c r="AE27" t="s">
+        <v>44</v>
+      </c>
+      <c r="AF27">
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -1376,7 +2125,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46FEE468-DE18-4CBE-AA34-EE2549837FE6}">
   <dimension ref="A1:G5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
@@ -1398,35 +2149,35 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="C3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D3">
-        <v>2</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C5">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Data/Table/MapSlot.xlsx
+++ b/Data/Table/MapSlot.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C624C49-B31A-4451-B51F-ADB18B634FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2D4C1D-F3DE-40EA-9D64-46CCCB5C692A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="4215" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="56">
   <si>
     <t>Slot0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -180,10 +180,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NextType;MapSlot</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Test</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -226,6 +222,14 @@
   </si>
   <si>
     <t>BBB</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NextType;MapSlot;AA.ABC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -557,7 +561,7 @@
   <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF9" sqref="AF9"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -571,7 +575,7 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B1" t="s">
         <v>26</v>
@@ -607,7 +611,7 @@
         <v>29</v>
       </c>
       <c r="P1" t="s">
-        <v>42</v>
+        <v>55</v>
       </c>
       <c r="Q1" t="s">
         <v>28</v>
@@ -616,13 +620,13 @@
         <v>29</v>
       </c>
       <c r="S1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="T1" t="s">
         <v>41</v>
       </c>
       <c r="U1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="V1" t="s">
         <v>30</v>
@@ -637,7 +641,7 @@
         <v>41</v>
       </c>
       <c r="AD1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="AE1" t="s">
         <v>30</v>
@@ -666,7 +670,7 @@
         <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="S2" t="s">
         <v>32</v>
@@ -675,25 +679,25 @@
         <v>31</v>
       </c>
       <c r="U2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="V2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="W2" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC2" t="s">
+        <v>52</v>
+      </c>
+      <c r="AD2" t="s">
+        <v>53</v>
+      </c>
+      <c r="AE2" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" t="s">
-        <v>53</v>
-      </c>
-      <c r="AD2" t="s">
-        <v>54</v>
-      </c>
-      <c r="AE2" t="s">
-        <v>50</v>
-      </c>
       <c r="AF2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.2">
@@ -709,14 +713,14 @@
       <c r="I3" t="s">
         <v>1</v>
       </c>
-      <c r="Q3" t="s">
-        <v>32</v>
+      <c r="Q3">
+        <v>12</v>
       </c>
       <c r="R3" t="s">
         <v>1</v>
       </c>
       <c r="S3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T3" t="s">
         <v>31</v>
@@ -766,13 +770,13 @@
         <v>2</v>
       </c>
       <c r="Q4" t="s">
-        <v>32</v>
+        <v>54</v>
       </c>
       <c r="R4" t="s">
         <v>2</v>
       </c>
       <c r="S4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T4" t="s">
         <v>10</v>
@@ -822,31 +826,31 @@
         <v>3</v>
       </c>
       <c r="Q5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R5" t="s">
         <v>3</v>
       </c>
       <c r="S5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T5" t="s">
         <v>11</v>
       </c>
       <c r="V5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W5">
         <v>12</v>
       </c>
       <c r="X5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y5">
         <v>12</v>
       </c>
       <c r="Z5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA5">
         <v>12</v>
@@ -855,7 +859,7 @@
         <v>11</v>
       </c>
       <c r="AE5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF5">
         <v>12</v>
@@ -878,31 +882,31 @@
         <v>4</v>
       </c>
       <c r="Q6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R6" t="s">
         <v>4</v>
       </c>
       <c r="S6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T6" t="s">
         <v>12</v>
       </c>
       <c r="V6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W6">
         <v>12</v>
       </c>
       <c r="X6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y6">
         <v>12</v>
       </c>
       <c r="Z6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA6">
         <v>12</v>
@@ -911,7 +915,7 @@
         <v>12</v>
       </c>
       <c r="AE6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF6">
         <v>12</v>
@@ -934,31 +938,31 @@
         <v>16</v>
       </c>
       <c r="Q7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R7" t="s">
         <v>16</v>
       </c>
       <c r="S7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T7" t="s">
         <v>24</v>
       </c>
       <c r="V7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W7">
         <v>12</v>
       </c>
       <c r="X7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y7">
         <v>12</v>
       </c>
       <c r="Z7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA7">
         <v>12</v>
@@ -967,7 +971,7 @@
         <v>24</v>
       </c>
       <c r="AE7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF7">
         <v>12</v>
@@ -990,31 +994,31 @@
         <v>17</v>
       </c>
       <c r="Q8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R8" t="s">
         <v>17</v>
       </c>
       <c r="S8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T8" t="s">
         <v>31</v>
       </c>
       <c r="V8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W8">
         <v>12</v>
       </c>
       <c r="X8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y8">
         <v>12</v>
       </c>
       <c r="Z8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA8">
         <v>12</v>
@@ -1023,7 +1027,7 @@
         <v>31</v>
       </c>
       <c r="AE8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF8">
         <v>12</v>
@@ -1046,31 +1050,31 @@
         <v>9</v>
       </c>
       <c r="Q9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R9" t="s">
         <v>18</v>
       </c>
       <c r="S9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T9" t="s">
         <v>31</v>
       </c>
       <c r="V9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W9">
         <v>12</v>
       </c>
       <c r="X9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y9">
         <v>12</v>
       </c>
       <c r="Z9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA9">
         <v>12</v>
@@ -1079,7 +1083,7 @@
         <v>31</v>
       </c>
       <c r="AE9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF9">
         <v>12</v>
@@ -1102,31 +1106,31 @@
         <v>19</v>
       </c>
       <c r="Q10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R10" t="s">
         <v>19</v>
       </c>
       <c r="S10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T10" t="s">
         <v>31</v>
       </c>
       <c r="V10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W10">
         <v>12</v>
       </c>
       <c r="X10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y10">
         <v>12</v>
       </c>
       <c r="Z10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA10">
         <v>12</v>
@@ -1135,7 +1139,7 @@
         <v>31</v>
       </c>
       <c r="AE10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF10">
         <v>12</v>
@@ -1158,31 +1162,31 @@
         <v>20</v>
       </c>
       <c r="Q11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R11" t="s">
         <v>20</v>
       </c>
       <c r="S11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T11" t="s">
         <v>10</v>
       </c>
       <c r="V11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W11">
         <v>12</v>
       </c>
       <c r="X11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y11">
         <v>12</v>
       </c>
       <c r="Z11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA11">
         <v>12</v>
@@ -1191,7 +1195,7 @@
         <v>10</v>
       </c>
       <c r="AE11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF11">
         <v>12</v>
@@ -1214,31 +1218,31 @@
         <v>21</v>
       </c>
       <c r="Q12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R12" t="s">
         <v>21</v>
       </c>
       <c r="S12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T12" t="s">
         <v>11</v>
       </c>
       <c r="V12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W12">
         <v>12</v>
       </c>
       <c r="X12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y12">
         <v>12</v>
       </c>
       <c r="Z12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA12">
         <v>12</v>
@@ -1247,7 +1251,7 @@
         <v>11</v>
       </c>
       <c r="AE12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF12">
         <v>12</v>
@@ -1270,31 +1274,31 @@
         <v>22</v>
       </c>
       <c r="Q13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R13" t="s">
         <v>22</v>
       </c>
       <c r="S13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T13" t="s">
         <v>12</v>
       </c>
       <c r="V13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W13">
         <v>12</v>
       </c>
       <c r="X13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y13">
         <v>12</v>
       </c>
       <c r="Z13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA13">
         <v>12</v>
@@ -1303,7 +1307,7 @@
         <v>12</v>
       </c>
       <c r="AE13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF13">
         <v>12</v>
@@ -1326,31 +1330,31 @@
         <v>23</v>
       </c>
       <c r="Q14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R14" t="s">
         <v>23</v>
       </c>
       <c r="S14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T14" t="s">
         <v>13</v>
       </c>
       <c r="V14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W14">
         <v>12</v>
       </c>
       <c r="X14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y14">
         <v>12</v>
       </c>
       <c r="Z14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA14">
         <v>12</v>
@@ -1359,7 +1363,7 @@
         <v>13</v>
       </c>
       <c r="AE14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF14">
         <v>12</v>
@@ -1382,31 +1386,31 @@
         <v>24</v>
       </c>
       <c r="Q15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R15" t="s">
         <v>24</v>
       </c>
       <c r="S15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T15" t="s">
         <v>14</v>
       </c>
       <c r="V15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W15">
         <v>12</v>
       </c>
       <c r="X15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y15">
         <v>12</v>
       </c>
       <c r="Z15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA15">
         <v>12</v>
@@ -1415,7 +1419,7 @@
         <v>14</v>
       </c>
       <c r="AE15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF15">
         <v>12</v>
@@ -1438,31 +1442,31 @@
         <v>9</v>
       </c>
       <c r="Q16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R16" t="s">
         <v>12</v>
       </c>
       <c r="S16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T16" t="s">
         <v>15</v>
       </c>
       <c r="V16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W16">
         <v>12</v>
       </c>
       <c r="X16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y16">
         <v>12</v>
       </c>
       <c r="Z16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA16">
         <v>12</v>
@@ -1471,7 +1475,7 @@
         <v>15</v>
       </c>
       <c r="AE16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF16">
         <v>12</v>
@@ -1494,31 +1498,31 @@
         <v>5</v>
       </c>
       <c r="Q17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R17" t="s">
         <v>5</v>
       </c>
       <c r="S17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T17" t="s">
         <v>13</v>
       </c>
       <c r="V17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W17">
         <v>12</v>
       </c>
       <c r="X17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y17">
         <v>12</v>
       </c>
       <c r="Z17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA17">
         <v>12</v>
@@ -1527,7 +1531,7 @@
         <v>13</v>
       </c>
       <c r="AE17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF17">
         <v>12</v>
@@ -1556,31 +1560,31 @@
         <v>10</v>
       </c>
       <c r="Q18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R18" t="s">
         <v>10</v>
       </c>
       <c r="S18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T18" t="s">
         <v>18</v>
       </c>
       <c r="V18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W18">
         <v>12</v>
       </c>
       <c r="X18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y18">
         <v>12</v>
       </c>
       <c r="Z18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA18">
         <v>12</v>
@@ -1589,7 +1593,7 @@
         <v>18</v>
       </c>
       <c r="AE18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF18">
         <v>12</v>
@@ -1612,31 +1616,31 @@
         <v>7</v>
       </c>
       <c r="Q19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R19" t="s">
         <v>7</v>
       </c>
       <c r="S19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T19" t="s">
         <v>15</v>
       </c>
       <c r="V19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W19">
         <v>12</v>
       </c>
       <c r="X19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y19">
         <v>12</v>
       </c>
       <c r="Z19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA19">
         <v>12</v>
@@ -1645,7 +1649,7 @@
         <v>15</v>
       </c>
       <c r="AE19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF19">
         <v>12</v>
@@ -1668,31 +1672,31 @@
         <v>8</v>
       </c>
       <c r="Q20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R20" t="s">
         <v>8</v>
       </c>
       <c r="S20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T20" t="s">
         <v>16</v>
       </c>
       <c r="V20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W20">
         <v>12</v>
       </c>
       <c r="X20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y20">
         <v>12</v>
       </c>
       <c r="Z20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA20">
         <v>12</v>
@@ -1701,7 +1705,7 @@
         <v>16</v>
       </c>
       <c r="AE20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF20">
         <v>12</v>
@@ -1724,31 +1728,31 @@
         <v>9</v>
       </c>
       <c r="Q21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R21" t="s">
         <v>9</v>
       </c>
       <c r="S21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T21" t="s">
         <v>17</v>
       </c>
       <c r="V21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W21">
         <v>12</v>
       </c>
       <c r="X21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y21">
         <v>12</v>
       </c>
       <c r="Z21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA21">
         <v>12</v>
@@ -1757,7 +1761,7 @@
         <v>17</v>
       </c>
       <c r="AE21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF21">
         <v>12</v>
@@ -1795,31 +1799,31 @@
         <v>34</v>
       </c>
       <c r="Q22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R22" t="s">
         <v>6</v>
       </c>
       <c r="S22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="T22" t="s">
         <v>14</v>
       </c>
       <c r="V22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W22">
         <v>12</v>
       </c>
       <c r="X22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y22">
         <v>12</v>
       </c>
       <c r="Z22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA22">
         <v>12</v>
@@ -1828,7 +1832,7 @@
         <v>14</v>
       </c>
       <c r="AE22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF22">
         <v>12</v>
@@ -1851,31 +1855,31 @@
         <v>0</v>
       </c>
       <c r="Q23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R23" t="s">
         <v>11</v>
       </c>
       <c r="S23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T23" t="s">
         <v>19</v>
       </c>
       <c r="V23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W23">
         <v>12</v>
       </c>
       <c r="X23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y23">
         <v>12</v>
       </c>
       <c r="Z23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA23">
         <v>12</v>
@@ -1884,7 +1888,7 @@
         <v>19</v>
       </c>
       <c r="AE23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF23">
         <v>12</v>
@@ -1907,31 +1911,31 @@
         <v>12</v>
       </c>
       <c r="Q24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R24" t="s">
         <v>12</v>
       </c>
       <c r="S24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T24" t="s">
         <v>20</v>
       </c>
       <c r="V24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W24">
         <v>12</v>
       </c>
       <c r="X24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y24">
         <v>12</v>
       </c>
       <c r="Z24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA24">
         <v>12</v>
@@ -1940,7 +1944,7 @@
         <v>20</v>
       </c>
       <c r="AE24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF24">
         <v>12</v>
@@ -1963,31 +1967,31 @@
         <v>13</v>
       </c>
       <c r="Q25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R25" t="s">
         <v>13</v>
       </c>
       <c r="S25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T25" t="s">
         <v>21</v>
       </c>
       <c r="V25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W25">
         <v>12</v>
       </c>
       <c r="X25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y25">
         <v>12</v>
       </c>
       <c r="Z25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA25">
         <v>12</v>
@@ -1996,7 +2000,7 @@
         <v>21</v>
       </c>
       <c r="AE25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF25">
         <v>12</v>
@@ -2019,31 +2023,31 @@
         <v>14</v>
       </c>
       <c r="Q26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R26" t="s">
         <v>14</v>
       </c>
       <c r="S26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T26" t="s">
         <v>22</v>
       </c>
       <c r="V26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W26">
         <v>12</v>
       </c>
       <c r="X26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y26">
         <v>12</v>
       </c>
       <c r="Z26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA26">
         <v>12</v>
@@ -2052,7 +2056,7 @@
         <v>22</v>
       </c>
       <c r="AE26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF26">
         <v>12</v>
@@ -2075,31 +2079,31 @@
         <v>15</v>
       </c>
       <c r="Q27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R27" t="s">
         <v>15</v>
       </c>
       <c r="S27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="T27" t="s">
         <v>23</v>
       </c>
       <c r="V27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="W27">
         <v>12</v>
       </c>
       <c r="X27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="Y27">
         <v>12</v>
       </c>
       <c r="Z27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AA27">
         <v>12</v>
@@ -2108,7 +2112,7 @@
         <v>23</v>
       </c>
       <c r="AE27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="AF27">
         <v>12</v>

--- a/Data/Table/MapSlot.xlsx
+++ b/Data/Table/MapSlot.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\ExcelBuilder\Data\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F2D4C1D-F3DE-40EA-9D64-46CCCB5C692A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F41F5B3-173C-4F72-A3EF-2DA782B631D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4215" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1644" yWindow="1260" windowWidth="9636" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="353" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="56">
   <si>
     <t>Slot0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -241,13 +241,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="等线"/>
+      <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -560,20 +560,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
+      <selection activeCell="Z3" sqref="Z3:AA3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="16" max="16" width="17.125" customWidth="1"/>
-    <col min="19" max="19" width="19.25" customWidth="1"/>
-    <col min="28" max="28" width="1.625" customWidth="1"/>
-    <col min="33" max="33" width="2.125" customWidth="1"/>
+    <col min="16" max="16" width="17.09765625" customWidth="1"/>
+    <col min="19" max="19" width="19.19921875" customWidth="1"/>
+    <col min="28" max="28" width="1.59765625" customWidth="1"/>
+    <col min="33" max="33" width="2.09765625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -653,7 +653,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>37</v>
       </c>
@@ -700,7 +700,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -737,12 +737,6 @@
       <c r="Y3">
         <v>12</v>
       </c>
-      <c r="Z3" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA3">
-        <v>12</v>
-      </c>
       <c r="AC3" t="s">
         <v>31</v>
       </c>
@@ -753,7 +747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -809,7 +803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -865,7 +859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -921,7 +915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -977,7 +971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1033,7 +1027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1089,7 +1083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1145,7 +1139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1201,7 +1195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1257,7 +1251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1313,7 +1307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1369,7 +1363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1425,7 +1419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1481,7 +1475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1537,7 +1531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1599,7 +1593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1655,7 +1649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1711,7 +1705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1767,7 +1761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1838,7 +1832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1894,7 +1888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1950,7 +1944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2006,7 +2000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2062,7 +2056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2133,9 +2127,9 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B1" t="s">
         <v>40</v>
       </c>
@@ -2146,12 +2140,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="B2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2162,7 +2156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -2173,7 +2167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>33</v>
       </c>

--- a/Data/Table/MapSlot.xlsx
+++ b/Data/Table/MapSlot.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UnityProject\ExcelBuilder\Data\Table\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F41F5B3-173C-4F72-A3EF-2DA782B631D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1F5E8F-F048-4EFE-92D7-4B0658562040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1644" yWindow="1260" windowWidth="9636" windowHeight="8964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13410" yWindow="8850" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -229,7 +229,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>NextType;MapSlot;AA.ABC</t>
+    <t>NextType;MapSlot</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -241,13 +241,13 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="Yu Gothic"/>
+      <name val="等线"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -560,20 +560,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" workbookViewId="0">
-      <selection activeCell="Z3" sqref="Z3:AA3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="9" customWidth="1"/>
-    <col min="16" max="16" width="17.09765625" customWidth="1"/>
-    <col min="19" max="19" width="19.19921875" customWidth="1"/>
-    <col min="28" max="28" width="1.59765625" customWidth="1"/>
-    <col min="33" max="33" width="2.09765625" customWidth="1"/>
+    <col min="16" max="16" width="17.125" customWidth="1"/>
+    <col min="19" max="19" width="19.25" customWidth="1"/>
+    <col min="28" max="28" width="1.625" customWidth="1"/>
+    <col min="33" max="33" width="2.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>47</v>
       </c>
@@ -653,7 +653,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>37</v>
       </c>
@@ -700,7 +700,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>0</v>
       </c>
@@ -747,7 +747,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>1</v>
       </c>
@@ -803,7 +803,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -859,7 +859,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -915,7 +915,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>15</v>
       </c>
@@ -971,7 +971,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>16</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>17</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>19</v>
       </c>
@@ -1195,7 +1195,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -1251,7 +1251,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -1307,7 +1307,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1363,7 +1363,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>23</v>
       </c>
@@ -1419,7 +1419,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>24</v>
       </c>
@@ -1475,7 +1475,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>4</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>31</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="19" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>6</v>
       </c>
@@ -1649,7 +1649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>7</v>
       </c>
@@ -1705,7 +1705,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="21" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>8</v>
       </c>
@@ -1761,7 +1761,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>10</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>11</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="25" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>12</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="26" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>13</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="27" spans="1:32" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>14</v>
       </c>
@@ -2127,9 +2127,9 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B1" t="s">
         <v>40</v>
       </c>
@@ -2140,12 +2140,12 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B2" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>34</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>32</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>33</v>
       </c>

--- a/Data/Table/MapSlot.xlsx
+++ b/Data/Table/MapSlot.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UnityProject\ExcelBuilder\Data\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D1F5E8F-F048-4EFE-92D7-4B0658562040}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D40EF56-0A1D-434C-BC94-3AA2DF9A31D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13410" yWindow="8850" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="600" yWindow="1875" windowWidth="28800" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="351" uniqueCount="55">
   <si>
     <t>Slot0</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -222,10 +222,6 @@
   </si>
   <si>
     <t>BBB</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>CC</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -561,7 +557,7 @@
   <dimension ref="A1:AG27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <selection activeCell="Q8" sqref="Q8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -611,7 +607,7 @@
         <v>29</v>
       </c>
       <c r="P1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="Q1" t="s">
         <v>28</v>
@@ -763,8 +759,8 @@
       <c r="I4" t="s">
         <v>2</v>
       </c>
-      <c r="Q4" t="s">
-        <v>54</v>
+      <c r="Q4">
+        <v>64</v>
       </c>
       <c r="R4" t="s">
         <v>2</v>
